--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
+    <x:t>Contacts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dagny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Galt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rearden</x:t>
+  </x:si>
+  <x:si>
     <x:t>Taggart</x:t>
   </x:si>
   <x:si>
-    <x:t>Dagny</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rearden</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Galt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>John</x:t>
+    <x:t>Outcast</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOB</x:t>
   </x:si>
   <x:si>
     <x:t>Income</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Outcast</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contacts</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -133,6 +133,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -150,6 +184,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -176,23 +244,6 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
       <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
@@ -210,7 +261,41 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -224,6 +309,74 @@
       <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
@@ -238,74 +391,6 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -313,91 +398,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -412,9 +412,6 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -424,76 +421,79 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -506,10 +506,6 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -522,6 +518,14 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -530,23 +534,15 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -554,7 +550,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -562,27 +562,19 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -590,32 +582,40 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -920,49 +920,49 @@
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.55" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.55" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.98" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.27" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.27" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.41" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="11.7" style="0" customWidth="1"/>
     <x:col min="7" max="16384" width="9.850625" style="15" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="29" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="26" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="23" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="23" t="s">
+      <x:c r="B2" s="16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="18" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="18" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="28" t="s"/>
-      <x:c r="C3" s="25" t="s">
-        <x:v>9</x:v>
+      <x:c r="B3" s="20" t="s"/>
+      <x:c r="C3" s="21" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E3" s="22" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F3" s="18" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F3" s="23" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="28" t="s"/>
-      <x:c r="C4" s="25" t="s">
-        <x:v>8</x:v>
+      <x:c r="B4" s="20" t="s"/>
+      <x:c r="C4" s="21" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="22" t="b">
         <x:v>1</x:v>
@@ -970,37 +970,37 @@
       <x:c r="E4" s="22" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="18" t="b">
+      <x:c r="F4" s="23" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="28" t="s"/>
-      <x:c r="C5" s="25" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="21">
+      <x:c r="B5" s="20" t="s"/>
+      <x:c r="C5" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="24">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E5" s="21">
+      <x:c r="E5" s="24">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="17">
+      <x:c r="F5" s="25">
         <x:v>8020</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="27" t="s"/>
-      <x:c r="C6" s="24" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D6" s="20" t="n">
+      <x:c r="B6" s="26" t="s"/>
+      <x:c r="C6" s="27" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="28" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="20" t="n">
+      <x:c r="E6" s="28" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="F6" s="16" t="n">
+      <x:c r="F6" s="29" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -405,7 +405,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="30">
+  <x:cellStyleXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -451,9 +451,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -497,7 +494,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -556,10 +553,6 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -917,90 +910,89 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.27" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.27" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.41" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.7" style="0" customWidth="1"/>
-    <x:col min="7" max="16384" width="9.850625" style="15" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="16" t="s">
+      <x:c r="B2" s="15" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="16" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="18" t="s">
+      <x:c r="D2" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="18" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="19" t="s">
+      <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="20" t="s"/>
-      <x:c r="C3" s="21" t="s">
+      <x:c r="B3" s="19" t="s"/>
+      <x:c r="C3" s="20" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="22" t="s">
+      <x:c r="D3" s="21" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="22" t="s">
+      <x:c r="E3" s="21" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F3" s="23" t="s">
+      <x:c r="F3" s="22" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="20" t="s"/>
-      <x:c r="C4" s="21" t="s">
+      <x:c r="B4" s="19" t="s"/>
+      <x:c r="C4" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="22" t="b">
+      <x:c r="D4" s="21" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="22" t="b">
+      <x:c r="E4" s="21" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="23" t="b">
+      <x:c r="F4" s="22" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="20" t="s"/>
-      <x:c r="C5" s="21" t="s">
+      <x:c r="B5" s="19" t="s"/>
+      <x:c r="C5" s="20" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D5" s="24">
+      <x:c r="D5" s="23">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E5" s="24">
+      <x:c r="E5" s="23">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="25">
+      <x:c r="F5" s="24">
         <x:v>8020</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="26" t="s"/>
-      <x:c r="C6" s="27" t="s">
+      <x:c r="B6" s="25" t="s"/>
+      <x:c r="C6" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="28" t="n">
+      <x:c r="D6" s="27" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="28" t="n">
+      <x:c r="E6" s="27" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="F6" s="29" t="n">
+      <x:c r="F6" s="28" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -405,7 +405,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="29">
+  <x:cellStyleXfs count="43">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -446,6 +446,48 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -405,7 +405,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="43">
+  <x:cellStyleXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -490,53 +490,20 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -606,15 +573,15 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -622,23 +589,23 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -646,11 +613,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1034,7 +997,7 @@
       <x:c r="E6" s="27" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="F6" s="28" t="n">
+      <x:c r="F6" s="14" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -1008,14 +1008,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -918,10 +918,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -918,10 +918,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -918,10 +918,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -60,7 +60,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,6 +70,20 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -927,7 +927,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -932,10 +932,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.590625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -283,6 +283,40 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
         <x:color rgb="FF000000"/>
       </x:left>
@@ -303,10 +337,27 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thick">
+      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
@@ -317,13 +368,13 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
@@ -334,75 +385,24 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
@@ -465,46 +465,46 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -513,7 +513,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -578,23 +578,27 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -602,31 +606,27 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -939,76 +939,76 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="15" t="s">
+      <x:c r="B2" s="18" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="16" t="s">
+      <x:c r="C2" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="17" t="s">
+      <x:c r="D2" s="16" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="17" t="s">
+      <x:c r="E2" s="16" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="18" t="s">
+      <x:c r="F2" s="15" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="19" t="s"/>
-      <x:c r="C3" s="20" t="s">
+      <x:c r="B3" s="22" t="s"/>
+      <x:c r="C3" s="21" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="21" t="s">
+      <x:c r="D3" s="20" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="21" t="s">
+      <x:c r="E3" s="20" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F3" s="22" t="s">
+      <x:c r="F3" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="19" t="s"/>
-      <x:c r="C4" s="20" t="s">
+      <x:c r="B4" s="22" t="s"/>
+      <x:c r="C4" s="21" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="21" t="b">
+      <x:c r="D4" s="20" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="21" t="b">
+      <x:c r="E4" s="20" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="22" t="b">
+      <x:c r="F4" s="19" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="19" t="s"/>
-      <x:c r="C5" s="20" t="s">
+      <x:c r="B5" s="22" t="s"/>
+      <x:c r="C5" s="21" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D5" s="23">
+      <x:c r="D5" s="24">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E5" s="23">
+      <x:c r="E5" s="24">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="24">
+      <x:c r="F5" s="23">
         <x:v>8020</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="25" t="s"/>
+      <x:c r="B6" s="27" t="s"/>
       <x:c r="C6" s="26" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="27" t="n">
+      <x:c r="D6" s="25" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="27" t="n">
+      <x:c r="E6" s="25" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="F6" s="14" t="n">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -283,12 +283,97 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
       <x:top style="thick">
         <x:color rgb="FF000000"/>
       </x:top>
@@ -317,101 +402,16 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thick">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -468,13 +468,22 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -483,37 +492,28 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -582,18 +582,30 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -602,28 +614,16 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -939,76 +939,76 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="18" t="s">
+      <x:c r="B2" s="24" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="25" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="16" t="s">
+      <x:c r="D2" s="26" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="16" t="s">
+      <x:c r="E2" s="26" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="15" t="s">
+      <x:c r="F2" s="27" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="22" t="s"/>
-      <x:c r="C3" s="21" t="s">
+      <x:c r="B3" s="18" t="s"/>
+      <x:c r="C3" s="19" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="20" t="s">
+      <x:c r="D3" s="22" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E3" s="20" t="s">
+      <x:c r="E3" s="22" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F3" s="19" t="s">
+      <x:c r="F3" s="23" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="22" t="s"/>
-      <x:c r="C4" s="21" t="s">
+      <x:c r="B4" s="18" t="s"/>
+      <x:c r="C4" s="19" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="20" t="b">
+      <x:c r="D4" s="22" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="20" t="b">
+      <x:c r="E4" s="22" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="b">
+      <x:c r="F4" s="23" t="b">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="22" t="s"/>
-      <x:c r="C5" s="21" t="s">
+      <x:c r="B5" s="18" t="s"/>
+      <x:c r="C5" s="19" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D5" s="24">
+      <x:c r="D5" s="20">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E5" s="24">
+      <x:c r="E5" s="20">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="23">
+      <x:c r="F5" s="21">
         <x:v>8020</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="27" t="s"/>
-      <x:c r="C6" s="26" t="s">
+      <x:c r="B6" s="15" t="s"/>
+      <x:c r="C6" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="25" t="n">
+      <x:c r="D6" s="17" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="E6" s="25" t="n">
+      <x:c r="E6" s="17" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="F6" s="14" t="n">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -420,213 +420,213 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="32">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="28">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -935,7 +935,7 @@
     <x:col min="3" max="3" width="7.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.590625000000001" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.590625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -58,7 +58,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -450,7 +450,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -462,7 +462,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -471,7 +471,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -558,7 +558,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -574,7 +574,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -586,7 +586,7 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
